--- a/Excel/worksheets_custom_view_logical_test_if.xlsx
+++ b/Excel/worksheets_custom_view_logical_test_if.xlsx
@@ -21,9 +21,9 @@
   </definedNames>
   <calcPr calcId="152511"/>
   <customWorkbookViews>
+    <customWorkbookView name="Myself" guid="{D94D4828-E5EE-4F08-B27C-AC07A3B104CD}" xWindow="780" yWindow="5" windowWidth="1132" windowHeight="1032" activeSheetId="1" showComments="commIndAndComment"/>
+    <customWorkbookView name="manager" guid="{F7A13D2D-C50A-48B4-9920-68EF306152A2}" xWindow="780" yWindow="5" windowWidth="1132" windowHeight="1032" activeSheetId="1" showComments="commIndAndComment"/>
     <customWorkbookView name="my" guid="{9825F0F3-573C-41A0-9F87-0B2BFF64BE89}" xWindow="780" yWindow="5" windowWidth="1132" windowHeight="1032" activeSheetId="1" showComments="commIndAndComment"/>
-    <customWorkbookView name="manager" guid="{F7A13D2D-C50A-48B4-9920-68EF306152A2}" xWindow="780" yWindow="5" windowWidth="1132" windowHeight="1032" activeSheetId="1" showComments="commIndAndComment"/>
-    <customWorkbookView name="Myself" guid="{D94D4828-E5EE-4F08-B27C-AC07A3B104CD}" xWindow="780" yWindow="5" windowWidth="1132" windowHeight="1032" activeSheetId="1" showComments="commIndAndComment"/>
   </customWorkbookViews>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="74">
   <si>
     <t>Viewing Worksheets</t>
   </si>
@@ -250,6 +250,12 @@
   </si>
   <si>
     <t>/* if(b31&lt;c31,b32+c31,0) */</t>
+  </si>
+  <si>
+    <t>Age</t>
+  </si>
+  <si>
+    <t xml:space="preserve">category </t>
   </si>
 </sst>
 </file>
@@ -316,9 +322,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -327,6 +330,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -630,10 +636,10 @@
   <sheetPr>
     <tabColor theme="5" tint="0.59999389629810485"/>
   </sheetPr>
-  <dimension ref="A1:G39"/>
+  <dimension ref="A1:J39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D35" sqref="D35"/>
+    <sheetView showFormulas="1" tabSelected="1" topLeftCell="F28" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="M32" sqref="M32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.85546875" defaultRowHeight="57" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -644,17 +650,20 @@
     <col min="4" max="4" width="14.85546875" style="1"/>
     <col min="5" max="5" width="14.85546875" style="1" customWidth="1"/>
     <col min="6" max="6" width="31" style="1" customWidth="1"/>
-    <col min="7" max="16384" width="14.85546875" style="1"/>
+    <col min="7" max="9" width="14.85546875" style="1"/>
+    <col min="10" max="10" width="35.140625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="28.42578125" style="1" customWidth="1"/>
+    <col min="12" max="16384" width="14.85546875" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="57" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
     </row>
     <row r="2" spans="1:7" ht="57" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -684,25 +693,25 @@
       </c>
     </row>
     <row r="5" spans="1:7" ht="57" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="2" t="s">
+      <c r="A5" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
+      <c r="B5" s="6"/>
+      <c r="C5" s="6"/>
+      <c r="D5" s="6"/>
+      <c r="E5" s="6"/>
     </row>
     <row r="6" spans="1:7" ht="57" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="C6" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D6" s="3" t="s">
+      <c r="D6" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="E6" s="3" t="s">
+      <c r="E6" s="2" t="s">
         <v>14</v>
       </c>
       <c r="F6" s="1" t="s">
@@ -747,13 +756,13 @@
       </c>
     </row>
     <row r="9" spans="1:7" ht="57" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
+      <c r="A9" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="B9" s="2"/>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
+      <c r="B9" s="6"/>
+      <c r="C9" s="6"/>
+      <c r="D9" s="6"/>
+      <c r="E9" s="6"/>
     </row>
     <row r="10" spans="1:7" ht="57" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
@@ -782,13 +791,13 @@
       </c>
     </row>
     <row r="14" spans="1:7" ht="57" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="2" t="s">
+      <c r="A14" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="B14" s="2"/>
-      <c r="C14" s="2"/>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
+      <c r="B14" s="6"/>
+      <c r="C14" s="6"/>
+      <c r="D14" s="6"/>
+      <c r="E14" s="6"/>
     </row>
     <row r="15" spans="1:7" ht="57" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
@@ -803,12 +812,12 @@
         <v>36</v>
       </c>
     </row>
-    <row r="17" spans="1:4" ht="57" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:10" ht="57" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="57" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:10" ht="57" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
         <v>38</v>
       </c>
@@ -816,11 +825,11 @@
         <v>40</v>
       </c>
     </row>
-    <row r="19" spans="1:4" ht="57" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:10" ht="57" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
         <v>39</v>
       </c>
-      <c r="B19" s="4"/>
+      <c r="B19" s="3"/>
       <c r="C19" s="1" t="s">
         <v>41</v>
       </c>
@@ -828,15 +837,15 @@
         <v>42</v>
       </c>
     </row>
-    <row r="20" spans="1:4" ht="57" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="2" t="s">
+    <row r="20" spans="1:10" ht="57" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A20" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="B20" s="2"/>
-      <c r="C20" s="2"/>
-      <c r="D20" s="2"/>
-    </row>
-    <row r="21" spans="1:4" ht="57" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B20" s="6"/>
+      <c r="C20" s="6"/>
+      <c r="D20" s="6"/>
+    </row>
+    <row r="21" spans="1:10" ht="57" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>43</v>
       </c>
@@ -850,15 +859,15 @@
         <v>46</v>
       </c>
     </row>
-    <row r="22" spans="1:4" ht="57" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="2" t="s">
+    <row r="22" spans="1:10" ht="57" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="B22" s="2"/>
-      <c r="C22" s="2"/>
-      <c r="D22" s="2"/>
-    </row>
-    <row r="23" spans="1:4" ht="57" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B22" s="6"/>
+      <c r="C22" s="6"/>
+      <c r="D22" s="6"/>
+    </row>
+    <row r="23" spans="1:10" ht="57" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
         <v>48</v>
       </c>
@@ -866,35 +875,35 @@
         <v>53</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="57" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:10" ht="57" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="57" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:10" ht="57" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="26" spans="1:4" ht="57" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:10" ht="57" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="27" spans="1:4" ht="57" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:10" ht="57" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="28" spans="1:4" ht="57" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="2" t="s">
+    <row r="28" spans="1:10" ht="57" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="6" t="s">
         <v>54</v>
       </c>
-      <c r="B28" s="2"/>
-      <c r="C28" s="2"/>
-      <c r="D28" s="2"/>
-    </row>
-    <row r="29" spans="1:4" ht="57" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B28" s="6"/>
+      <c r="C28" s="6"/>
+      <c r="D28" s="6"/>
+    </row>
+    <row r="29" spans="1:10" ht="57" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
         <v>55</v>
       </c>
@@ -902,7 +911,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="30" spans="1:4" ht="57" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:10" ht="57" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="1">
         <v>10</v>
       </c>
@@ -916,40 +925,90 @@
       <c r="D30" s="1" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="31" spans="1:4" ht="57" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H30" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="I30" s="1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" ht="57" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="1">
         <v>20</v>
       </c>
       <c r="B31" s="1">
         <v>20</v>
       </c>
-    </row>
-    <row r="32" spans="1:4" ht="57" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H31" s="1">
+        <v>3</v>
+      </c>
+      <c r="I31" s="1" t="str">
+        <f>IF(H31&gt;5,"Kids",IF(H31&gt;12,"Teenager","adults"))</f>
+        <v>adults</v>
+      </c>
+      <c r="J31" s="1" t="str">
+        <f>IF(AND(H31&gt;0,H31&lt;12),"Kids",IF(AND(H31&gt;=12,H31&lt;=19),"teenager","adults"))</f>
+        <v>Kids</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" ht="57" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="1">
         <v>90</v>
       </c>
       <c r="B32" s="1">
         <v>90</v>
       </c>
-    </row>
-    <row r="33" spans="1:4" ht="57" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="2" t="s">
+      <c r="H32" s="1">
+        <v>5</v>
+      </c>
+      <c r="I32" s="1" t="str">
+        <f t="shared" ref="I32:I35" si="0">IF(H32&gt;5,"Kids",IF(H32&gt;12,"Teenager","adults"))</f>
+        <v>adults</v>
+      </c>
+      <c r="J32" s="1" t="str">
+        <f t="shared" ref="J32:J35" si="1">IF(AND(H32&gt;0,H32&lt;12),"Kids",IF(AND(H32&gt;=12,H32&lt;=19),"teenager","adults"))</f>
+        <v>Kids</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" ht="57" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="6" t="s">
         <v>58</v>
       </c>
-      <c r="B33" s="2"/>
-      <c r="C33" s="2"/>
-      <c r="D33" s="2"/>
-    </row>
-    <row r="34" spans="1:4" ht="57" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="6" t="s">
+      <c r="B33" s="6"/>
+      <c r="C33" s="6"/>
+      <c r="D33" s="6"/>
+      <c r="H33" s="1">
+        <v>7</v>
+      </c>
+      <c r="I33" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>Kids</v>
+      </c>
+      <c r="J33" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>Kids</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" ht="57" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="B34" s="6" t="s">
+      <c r="B34" s="5" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="35" spans="1:4" ht="57" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H34" s="1">
+        <v>14</v>
+      </c>
+      <c r="I34" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>Kids</v>
+      </c>
+      <c r="J34" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>teenager</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" ht="57" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
         <v>61</v>
       </c>
@@ -963,8 +1022,19 @@
       <c r="D35" s="1" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="36" spans="1:4" ht="57" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H35" s="1">
+        <v>21</v>
+      </c>
+      <c r="I35" s="1" t="str">
+        <f t="shared" si="0"/>
+        <v>Kids</v>
+      </c>
+      <c r="J35" s="1" t="str">
+        <f t="shared" si="1"/>
+        <v>adults</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" ht="57" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
         <v>62</v>
       </c>
@@ -979,7 +1049,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="37" spans="1:4" ht="57" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:10" ht="57" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
         <v>63</v>
       </c>
@@ -990,8 +1060,15 @@
       <c r="C37" s="1" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="38" spans="1:4" ht="57" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="I37" s="1">
+        <v>21</v>
+      </c>
+      <c r="J37" s="1" t="str">
+        <f>IF(AND(I37&gt;20,I37&lt;15),"yes","no")</f>
+        <v>no</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" ht="57" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
         <v>64</v>
       </c>
@@ -1003,7 +1080,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="39" spans="1:4" ht="57" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:10" ht="57" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
         <v>70</v>
       </c>
@@ -1013,16 +1090,16 @@
     </row>
   </sheetData>
   <customSheetViews>
-    <customSheetView guid="{9825F0F3-573C-41A0-9F87-0B2BFF64BE89}">
-      <selection activeCell="G8" sqref="G8"/>
+    <customSheetView guid="{D94D4828-E5EE-4F08-B27C-AC07A3B104CD}">
+      <selection activeCell="F8" sqref="F8"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
     <customSheetView guid="{F7A13D2D-C50A-48B4-9920-68EF306152A2}" hiddenColumns="1" topLeftCell="B1">
       <selection activeCell="A2" sqref="A1:A1048576"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
-    <customSheetView guid="{D94D4828-E5EE-4F08-B27C-AC07A3B104CD}">
-      <selection activeCell="F8" sqref="F8"/>
+    <customSheetView guid="{9825F0F3-573C-41A0-9F87-0B2BFF64BE89}">
+      <selection activeCell="G8" sqref="G8"/>
       <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
     </customSheetView>
   </customSheetViews>
@@ -1049,7 +1126,7 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="19" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B19" s="5"/>
+      <c r="B19" s="4"/>
       <c r="C19" t="s">
         <v>41</v>
       </c>
